--- a/Health_Affairs/output/HA_articles_parsed_manual_v2.xlsx
+++ b/Health_Affairs/output/HA_articles_parsed_manual_v2.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="HA_articles_parsed_manual" sheetId="1" r:id="rId1"/>
-    <sheet name="explanations" sheetId="2" r:id="rId2"/>
+    <sheet name="keywords_manual_final" sheetId="3" r:id="rId2"/>
+    <sheet name="explanations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HA_articles_parsed_manual!$A$1:$I$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HA_articles_parsed_manual!$A$1:$J$34</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="221">
   <si>
     <t>IMPAQ Category</t>
   </si>
@@ -569,12 +570,129 @@
   </si>
   <si>
     <t>smoking bans not innovative</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>Controlled Substance Lock-In Programs, Examining An Unintended Consequence Of A Prescription Drug Abuse Policy</t>
+  </si>
+  <si>
+    <t>['CONTROLLED SUBSTANCE LOCK-IN']</t>
+  </si>
+  <si>
+    <t>['EMERGENCY CARE SUBSTANCE ABUSE DISORDER', 'EMERGENCY CARE SUBSTANCE ABUSE DISORDERS', 'EMERGENCY CARE BEHAVIORAL DISORDER', 'EMERGENCY CARE BEHAVIORAL DISORDERS']</t>
+  </si>
+  <si>
+    <t>['MEDICATION TREATMENT OPIOID SUBSTANCE USE']</t>
+  </si>
+  <si>
+    <t>['PRESCRIPTION DRUG MONITORING PROGRAM REDUCTION', 'PRESCRIPTION DRUG MONITORING PROGRAMS REDUCTION']</t>
+  </si>
+  <si>
+    <t>['PLACEMENT SUPPORT SERVICES MENTAL ILLNESSES']</t>
+  </si>
+  <si>
+    <t>['POPULATION HEALTH MODEL EMERGENCY INPATIENT']</t>
+  </si>
+  <si>
+    <t>['TRANSITIONAL CARE READMISSIONS CHRONIC']</t>
+  </si>
+  <si>
+    <t>An Electronic Health RecordÃ¢â‚¬â€œBased Real-Time Analytics Program For Patient Safety Surveillance And Improvement</t>
+  </si>
+  <si>
+    <t>['EHR ANALYTICS PATIENT SAFETY']</t>
+  </si>
+  <si>
+    <t>Legacy HealthÃ¢â‚¬â„¢s Ã¢â‚¬ËœBig AimsÃ¢â‚¬â„¢ Initiative To Improve Patient Safety Reduced Rates Of Infection And Mortality Among Patients</t>
+  </si>
+  <si>
+    <t>['LEGACY HEALTH PATIENT SAFETY']</t>
+  </si>
+  <si>
+    <t>['MEDICATION SYNCHRONIZATION ADHERENCE CARDIOVASCULAR ']</t>
+  </si>
+  <si>
+    <t>['STATINS WARRANTS ADHERENCE']</t>
+  </si>
+  <si>
+    <t>['PHARMACY MEDICATION PRESCRIPTION ADHERENCE']</t>
+  </si>
+  <si>
+    <t>['HOSPITAL READMISSIONS REDUCTION PROGRAM']</t>
+  </si>
+  <si>
+    <t>['SKILLED NURSING READMISSIONS']</t>
+  </si>
+  <si>
+    <t>['STAFFING READMISSIONS PENALTIES']</t>
+  </si>
+  <si>
+    <t>Association Of A Regional Health Improvement Collaborative With Ambulatory CareÃ¢â‚¬â€œSensitive Hospitalizations</t>
+  </si>
+  <si>
+    <t>['IMPROVEMENT COLLABORATIVE HOSPITALIZATIONS']</t>
+  </si>
+  <si>
+    <t>['AVOIDABLE HOSPITALIZATIONS NURSING']</t>
+  </si>
+  <si>
+    <t>['PATIENT-CENTERED HEALTH PLAN MODEL']</t>
+  </si>
+  <si>
+    <t>['HOME-BASED CARE PROGRAM DISABILITY AGING']</t>
+  </si>
+  <si>
+    <t>['ADVANCE DIRECTIVES DEMENTIA', 'NURSING HOME END-OF-LIFE CARE DEMENTIA']</t>
+  </si>
+  <si>
+    <t>['TELEHEALTH MEDICARE CHRONIC']</t>
+  </si>
+  <si>
+    <t>['REMOTE PATIENT MANAGEMENT CHRONIC']</t>
+  </si>
+  <si>
+    <t>['CHRONIC CARE MANAGEMENT HEART FAILURE']</t>
+  </si>
+  <si>
+    <t>['VIDEO ETHNOGRAPHY TRANSITIONS']</t>
+  </si>
+  <si>
+    <t>['COORDINATION ACUTE PRIMARY VISITS']</t>
+  </si>
+  <si>
+    <t>['HEALTHY AGING BRAIN COORDINATION']</t>
+  </si>
+  <si>
+    <t>['IMPROVE CARE COORDINATION MEDICAID']</t>
+  </si>
+  <si>
+    <t>['NEWBORN TELEHEALTH TRANSFERS']</t>
+  </si>
+  <si>
+    <t>Old ID</t>
+  </si>
+  <si>
+    <t>New ID</t>
+  </si>
+  <si>
+    <t>NONE, DELETED</t>
+  </si>
+  <si>
+    <t>NONE, DUPLICATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1436,943 +1554,1471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="118.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
       <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>42644</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>41609</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>43466</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>42522</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>42522</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>43191</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>37</v>
       </c>
       <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>41609</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>41487</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>43405</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>40634</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>86</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>43101</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
       <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
         <v>67</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>41183</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>88</v>
       </c>
       <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>41000</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>40909</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>92</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>43374</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
       <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
         <v>82</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>42979</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>99</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>41548</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100</v>
       </c>
       <c r="B19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>41487</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>102</v>
       </c>
       <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>43191</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
       <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
         <v>41</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>103</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>43132</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
       <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
         <v>97</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>42795</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
       <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
         <v>101</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>115</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>41214</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>121</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>111</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>112</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>42614</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
       <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
         <v>101</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>128</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>115</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>116</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>117</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>41730</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>147</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>120</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>129</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>40787</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>156</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>135</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>136</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>132</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>39814</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>157</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>135</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>136</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>140</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>39814</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>160</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>143</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>147</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>41061</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>162</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>135</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>150</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>151</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>43009</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
       <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
         <v>153</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>163</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>135</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>150</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>155</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>41730</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>164</v>
       </c>
       <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" t="s">
         <v>135</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>150</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>158</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>41395</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>165</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
         <v>135</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>150</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>161</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>40603</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>166</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
         <v>135</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>164</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>126</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>43435</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
       <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
         <v>19</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42644</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="1">
+        <v>41609</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="1">
+        <v>42522</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42522</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43191</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="1">
+        <v>41487</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43405</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="1">
+        <v>40634</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43101</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41183</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40909</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43374</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42979</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="1">
+        <v>41548</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43132</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42795</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="1">
+        <v>41214</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42614</v>
+      </c>
+      <c r="F20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="1">
+        <v>41730</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="1">
+        <v>40787</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="1">
+        <v>39814</v>
+      </c>
+      <c r="F23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="1">
+        <v>39814</v>
+      </c>
+      <c r="F24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="1">
+        <v>41061</v>
+      </c>
+      <c r="F25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43009</v>
+      </c>
+      <c r="F26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="1">
+        <v>41730</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="1">
+        <v>40603</v>
+      </c>
+      <c r="F28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43435</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
